--- a/BOLERA-FACTURA/SUNAT FEBRERO VILLAFUERTE.xlsx
+++ b/BOLERA-FACTURA/SUNAT FEBRERO VILLAFUERTE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\EXTENCION_PHYTON\BOLERA-FACTURA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE8FA53-FD87-4A23-97A0-703BCA27E82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78FC0CC-3BC4-4A7A-AEF7-3CEFC608BD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="26">
   <si>
     <t>VILLAFUERTE GARCIA ROSSANA GUISELA</t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t>GILBERTO AUGUSTO PAREJA TORRES</t>
+  </si>
+  <si>
+    <t>GREGORIO DEL CARMEN QUISPE DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>SONIA ESTHER TALLA QUINTO DE PILLACA</t>
+  </si>
+  <si>
+    <t>FRIEDA ISABEL PADIN SOTO</t>
+  </si>
+  <si>
+    <t>WILLIAM ALEXANDER GARCIA HUAPAYA</t>
+  </si>
+  <si>
+    <t>ALFREDO ANDRES RODRIGUEZ ELIAS</t>
   </si>
 </sst>
 </file>
@@ -518,11 +533,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H1048574"/>
+  <dimension ref="A3:H1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -591,7 +606,7 @@
         <v>1581.36</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" ref="G8:G71" si="0">IF(ISBLANK(E8),F8,E8*1.18)</f>
+        <f t="shared" ref="G8:G73" si="0">IF(ISBLANK(E8),F8,E8*1.18)</f>
         <v>1866.0047999999997</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -847,48 +862,35 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>45358</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>45358</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A22" s="5"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>45358</v>
+        <v>45363</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="D23" s="1">
+        <v>14743</v>
+      </c>
+      <c r="E23" s="3">
+        <v>952.54</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1123.9971999999998</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -901,9 +903,18 @@
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D24" s="1">
+        <v>14744</v>
+      </c>
+      <c r="E24" s="3">
+        <v>838.98</v>
+      </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>989.99639999999999</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -916,9 +927,18 @@
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D25" s="1">
+        <v>14745</v>
+      </c>
+      <c r="E25" s="3">
+        <v>474.58</v>
+      </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>560.00439999999992</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -931,9 +951,18 @@
       <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D26" s="1">
+        <v>14756</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1400</v>
+      </c>
       <c r="G26" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -946,39 +975,66 @@
       <c r="C27" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D27" s="1">
+        <v>14747</v>
+      </c>
+      <c r="F27" s="3">
+        <v>700</v>
+      </c>
       <c r="G27" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>45355</v>
+        <v>45358</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="D28" s="1">
+        <v>14748</v>
+      </c>
+      <c r="E28" s="3">
+        <v>28.81</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33.995799999999996</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>45355</v>
+        <v>45358</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="D29" s="1">
+        <v>14749</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1430</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1430</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1291,7 +1347,6 @@
       <c r="C50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="1"/>
       <c r="G50" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1322,6 +1377,7 @@
       <c r="C52" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E52" s="1"/>
       <c r="G52" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1507,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>45355</v>
       </c>
@@ -1522,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>45355</v>
       </c>
@@ -1537,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>45355</v>
       </c>
@@ -1552,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>45355</v>
       </c>
@@ -1567,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>45355</v>
       </c>
@@ -1577,13 +1633,12 @@
       <c r="C69" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="1"/>
       <c r="G69" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>45355</v>
       </c>
@@ -1598,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>45355</v>
       </c>
@@ -1608,12 +1663,13 @@
       <c r="C71" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E71" s="1"/>
       <c r="G71" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>45355</v>
       </c>
@@ -1624,11 +1680,11 @@
         <v>11</v>
       </c>
       <c r="G72" s="8">
-        <f t="shared" ref="G72:G108" si="1">IF(ISBLANK(E72),F72,E72*1.18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>45355</v>
       </c>
@@ -1639,11 +1695,11 @@
         <v>11</v>
       </c>
       <c r="G73" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>45355</v>
       </c>
@@ -1654,11 +1710,11 @@
         <v>11</v>
       </c>
       <c r="G74" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G74:G110" si="1">IF(ISBLANK(E74),F74,E74*1.18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>45355</v>
       </c>
@@ -1673,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>45355</v>
       </c>
@@ -1688,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>45355</v>
       </c>
@@ -1703,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>45355</v>
       </c>
@@ -1713,13 +1769,12 @@
       <c r="C78" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="9"/>
       <c r="G78" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>45355</v>
       </c>
@@ -1733,9 +1788,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H79" s="10"/>
-    </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>45355</v>
       </c>
@@ -1745,6 +1799,7 @@
       <c r="C80" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D80" s="9"/>
       <c r="G80" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1764,6 +1819,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H81" s="10"/>
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
@@ -1925,14 +1981,10 @@
       <c r="C92" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="15"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
       <c r="G92" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H92" s="15"/>
     </row>
     <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
@@ -1959,10 +2011,14 @@
       <c r="C94" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D94" s="15"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
       <c r="G94" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H94" s="15"/>
     </row>
     <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
@@ -2175,13 +2231,34 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="5"/>
-      <c r="G109" s="8"/>
+      <c r="A109" s="5">
+        <v>45355</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="5"/>
-      <c r="E110" s="1"/>
-      <c r="G110" s="8"/>
+      <c r="A110" s="5">
+        <v>45355</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
@@ -2189,6 +2266,7 @@
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
+      <c r="E112" s="1"/>
       <c r="G112" s="8"/>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2229,7 +2307,6 @@
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="E122" s="1"/>
       <c r="G122" s="8"/>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2238,6 +2315,7 @@
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
+      <c r="E124" s="1"/>
       <c r="G124" s="8"/>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2290,7 +2368,6 @@
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
-      <c r="E137" s="1"/>
       <c r="G137" s="8"/>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2299,6 +2376,7 @@
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
+      <c r="E139" s="1"/>
       <c r="G139" s="8"/>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2379,7 +2457,6 @@
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
-      <c r="E159" s="1"/>
       <c r="G159" s="8"/>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2388,6 +2465,7 @@
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
+      <c r="E161" s="1"/>
       <c r="G161" s="8"/>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2422,16 +2500,16 @@
       <c r="A169" s="5"/>
       <c r="G169" s="8"/>
     </row>
+    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="5"/>
+      <c r="G170" s="8"/>
+    </row>
     <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
-    </row>
-    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="5"/>
-      <c r="G172" s="8"/>
+      <c r="G171" s="8"/>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
-      <c r="G173" s="8"/>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
@@ -2445,52 +2523,54 @@
       <c r="A176" s="5"/>
       <c r="G176" s="8"/>
     </row>
-    <row r="177" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
-    </row>
-    <row r="178" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G177" s="8"/>
+    </row>
+    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
-    </row>
-    <row r="179" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G178" s="8"/>
+    </row>
+    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
     </row>
-    <row r="180" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
     </row>
-    <row r="181" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
     </row>
-    <row r="182" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
     </row>
-    <row r="183" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
     </row>
-    <row r="184" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
     </row>
-    <row r="185" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
     </row>
-    <row r="186" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
     </row>
-    <row r="187" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
     </row>
-    <row r="188" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
     </row>
-    <row r="189" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
     </row>
-    <row r="190" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
     </row>
-    <row r="191" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
     </row>
-    <row r="192" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
     </row>
     <row r="193" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8088,8 +8168,14 @@
     <row r="2057" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2057" s="5"/>
     </row>
-    <row r="1048574" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1048574" s="5"/>
+    <row r="2058" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2058" s="5"/>
+    </row>
+    <row r="2059" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2059" s="5"/>
+    </row>
+    <row r="1048576" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1048576" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
